--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,21 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Difficulity</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Problem components</t>
+  </si>
+  <si>
+    <t>Solution ideas</t>
+  </si>
+  <si>
+    <t>Solution component</t>
+  </si>
+  <si>
+    <t>739. Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Array, Stack</t>
+  </si>
+  <si>
+    <t>- Give an integer array of temperatures
+- Return an array which array[i] is number of day need to wait for warmer temperature</t>
+  </si>
+  <si>
+    <t>- Two</t>
+  </si>
+  <si>
+    <t>496. Next Greater Element I</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>- Give two integer arrays arr1 and arr2
+- arr1 is a sub array of arr2
+- Return an array which arr[i] is a next greater of arr1[i] in arr2
+- If have no greater value, fill -1</t>
+  </si>
+  <si>
+    <t>- Two loops, one for choose element in arr1, one to check in arr2
+- Use a flag to check if arr1 element is found and start to check greater
+--&gt; Time: O(n^2)
+- Use a hash map to store arr2 value and index to get faster
+--&gt; Time: O(n^2) (97% beats)</t>
+  </si>
+  <si>
+    <t>- Iterate over arr2, store all value which small than previous value to a stack
+- If encounter a value bigger than top value of stack, pop it and put to a hash map to store its greater value
+- Finally, we will iterate over arr1 and get value from hashmap for output
+--&gt; Time: O(arr1.length + arr2.length + arr2.length) -&gt; O(n)
+- Why don't we use array ans directly instead of use a map? --&gt; Because we don't know index of current element.
+- When we encounter a value which bigger than top stack value, we will pop all stack? No, we will pop if that value bigger than current top stack.</t>
+  </si>
+  <si>
+    <t>- Two loops, one for day, one for check temperature
+--&gt; (TLE)
+- F2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +97,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +143,424 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFDF6B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF8181"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFDF6B3"/>
+      <color rgb="FFEFEEC1"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +850,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="29.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="68.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="71.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="41" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="29.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="240.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="74" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:G1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B1="Hard"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B1="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$B1="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EADFA1-4E1D-4A13-847C-B4009E2B9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,15 +81,19 @@
 - When we encounter a value which bigger than top stack value, we will pop all stack? No, we will pop if that value bigger than current top stack.</t>
   </si>
   <si>
-    <t>- Two loops, one for day, one for check temperature
+    <t xml:space="preserve">- Brute force
+- Two loops, one for day, one for check temperature
 --&gt; (TLE)
-- F2</t>
+- Iterate over the input array
+- keep the index and value of value which small than its previous value
+- while the value bigger than stack.peek(), pop the stack and assign index to answer array.
+--&gt; O(2*N) An easier way to think about this is that in the worst case, every element will be pushed and popped once. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -198,339 +203,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFDF6B3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -565,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,9 +277,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,27 +522,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="68.26953125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="71.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="68.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="41" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="29.7265625" style="2"/>
+    <col min="8" max="16384" width="29.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -893,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="240.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,7 +584,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,7 +605,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -942,7 +614,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -951,7 +623,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -960,7 +632,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -969,7 +641,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -978,7 +650,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -987,7 +659,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -996,7 +668,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1005,7 +677,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1014,7 +686,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1023,7 +695,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1032,7 +704,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1041,7 +713,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1050,7 +722,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1059,7 +731,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1068,7 +740,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1077,7 +749,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1086,7 +758,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1095,7 +767,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1104,7 +776,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1113,7 +785,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1122,7 +794,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1131,7 +803,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1140,7 +812,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1149,7 +821,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1158,7 +830,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1167,7 +839,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1176,7 +848,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1185,7 +857,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1194,7 +866,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1203,7 +875,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1212,7 +884,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1221,7 +893,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1230,7 +902,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1239,7 +911,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1248,7 +920,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1257,7 +929,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1266,7 +938,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1275,7 +947,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1284,7 +956,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1293,7 +965,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1302,7 +974,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1311,7 +983,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1320,7 +992,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1329,7 +1001,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EADFA1-4E1D-4A13-847C-B4009E2B9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C337398-8816-4BC1-99A0-917F1756C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Solution ideas</t>
-  </si>
-  <si>
-    <t>Solution component</t>
   </si>
   <si>
     <t>739. Daily Temperatures</t>
@@ -49,9 +46,6 @@
   <si>
     <t>- Give an integer array of temperatures
 - Return an array which array[i] is number of day need to wait for warmer temperature</t>
-  </si>
-  <si>
-    <t>- Two</t>
   </si>
   <si>
     <t>496. Next Greater Element I</t>
@@ -73,21 +67,16 @@
 --&gt; Time: O(n^2) (97% beats)</t>
   </si>
   <si>
-    <t>- Iterate over arr2, store all value which small than previous value to a stack
-- If encounter a value bigger than top value of stack, pop it and put to a hash map to store its greater value
-- Finally, we will iterate over arr1 and get value from hashmap for output
---&gt; Time: O(arr1.length + arr2.length + arr2.length) -&gt; O(n)
-- Why don't we use array ans directly instead of use a map? --&gt; Because we don't know index of current element.
-- When we encounter a value which bigger than top stack value, we will pop all stack? No, we will pop if that value bigger than current top stack.</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Brute force
 - Two loops, one for day, one for check temperature
 --&gt; (TLE)
+- Monotonic stack
 - Iterate over the input array
 - keep the index and value of value which small than its previous value
 - while the value bigger than stack.peek(), pop the stack and assign index to answer array.
---&gt; O(2*N) An easier way to think about this is that in the worst case, every element will be pushed and popped once. </t>
+--&gt; O(2*N) An easier way to think about this is that in the worst case, every element will be pushed and popped once. 
+- use Array
+- </t>
   </si>
 </sst>
 </file>
@@ -191,7 +180,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -523,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -536,13 +546,12 @@
     <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="68.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="71.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="41" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="29.7109375" style="2"/>
+    <col min="5" max="5" width="94" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="29.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,459 +568,405 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1048576">
+  <conditionalFormatting sqref="A1:F1048576">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B1="Hard"</formula>
     </cfRule>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C337398-8816-4BC1-99A0-917F1756C6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="0" windowWidth="23260" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -67,22 +66,51 @@
 --&gt; Time: O(n^2) (97% beats)</t>
   </si>
   <si>
-    <t xml:space="preserve">- Brute force
-- Two loops, one for day, one for check temperature
---&gt; (TLE)
-- Monotonic stack
+    <t>Takeaway</t>
+  </si>
+  <si>
+    <t>- Monotonic stack
 - Iterate over the input array
 - keep the index and value of value which small than its previous value
 - while the value bigger than stack.peek(), pop the stack and assign index to answer array.
 --&gt; O(2*N) An easier way to think about this is that in the worst case, every element will be pushed and popped once. 
 - use Array
-- </t>
+- Though process: If current temp is 70 then the warmer day would be 71 72 73....
+- Iterate from end of the input array to the index 0
+- init a variable to save hottest value
+- if(current day warm than hottest, assign hottest to current day)
+- because we want to find warmer day so we first check next day, if it not warmer, we will check nextday's warmer day, keep check until we found warmer day
+- Why we need to keep a hottest day?
+- Can we just need to compare current day if bigger than hottest day? why we need to equal case? 
+- Also why we need to compare equal case to find warmer?</t>
+  </si>
+  <si>
+    <t>853. Car Fleet</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>- Give two array, speed and destination and a target
+- A car fleet is a group of cars reach to the target together
+- A car which its init destination lower will not allow to pass another car ahead but it can catch up at the same speed.
+- return the number of car fleets</t>
+  </si>
+  <si>
+    <t>- The idea is easy, here we need to check if a lower car can reach the target before it's car ahead, that's all.
+- use a stack to keep track all of them or an array
+- First we need to combine the two input arrays to one and sort them by destination
+- then check the condition
+- return the size</t>
+  </si>
+  <si>
+    <t>- Think more about the case, try draw it to come up with the idea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +208,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -205,7 +233,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -247,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,9 +336,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,26 +581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.54296875" style="6" customWidth="1"/>
     <col min="5" max="5" width="94" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="29.7109375" style="2"/>
+    <col min="6" max="6" width="39.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="29.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="38" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -568,413 +618,506 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="111" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="370" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A1:G1 A4:G1048576">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B1="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B1="Medium"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$B1="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B2="Hard"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B2="Medium"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B1="Easy"</formula>
+      <formula>$B2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -105,6 +105,17 @@
   </si>
   <si>
     <t>- Think more about the case, try draw it to come up with the idea</t>
+  </si>
+  <si>
+    <t>84. Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>- Give an array of height
+- Each bar width is 1
+- return area of largest rectangle</t>
   </si>
 </sst>
 </file>
@@ -208,28 +219,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -582,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -633,71 +623,79 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="129.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="55.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="111" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="129.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="111" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="370" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    <row r="6" spans="1:7" ht="370" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
@@ -746,7 +744,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1097,8 +1095,17 @@
       <c r="F50" s="5"/>
       <c r="G50" s="1"/>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A4:G1048576">
+  <conditionalFormatting sqref="A1:G1 A5:G1048576">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B1="Hard"</formula>
     </cfRule>
@@ -1109,7 +1116,7 @@
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G3">
+  <conditionalFormatting sqref="A2:G4">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B2="Hard"</formula>
     </cfRule>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E94DA0-A74F-4589-8971-D9A44EBAEB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="0" windowWidth="23260" windowHeight="11250"/>
+    <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -117,11 +119,22 @@
 - Each bar width is 1
 - return area of largest rectangle</t>
   </si>
+  <si>
+    <t>- Look the example, can see there are three case of bar
+- Think if current bigger than previous bar, what should we do?
+- if a bar smaller than or equal to previous bar, what should we do?
+- Tricky part, if cur bar smaller than previous bar, we need to assign current bar the index of the last bigger bar
+- Use a stack to store index and height
+- Iterate the array then compare with top of stack
+- if &gt;=, push to stack
+- if &lt;, calaculate the area, assign the index to previous index
+- After all, we will calculate all stack to calculate area with index and height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +339,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,27 +584,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="94" style="6" customWidth="1"/>
-    <col min="6" max="6" width="39.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="29.7265625" style="2"/>
+    <col min="6" max="6" width="39.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="29.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -614,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -623,7 +636,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="55.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -636,11 +649,13 @@
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="129.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -661,7 +676,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="111" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,7 +695,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="370" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -699,7 +714,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -708,7 +723,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -717,7 +732,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -726,7 +741,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -735,7 +750,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -744,7 +759,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -753,7 +768,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -762,7 +777,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -771,7 +786,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -780,7 +795,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -789,7 +804,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -798,7 +813,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -807,7 +822,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -816,7 +831,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -825,7 +840,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -834,7 +849,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -843,7 +858,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -852,7 +867,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -861,7 +876,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -870,7 +885,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -879,7 +894,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -888,7 +903,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -897,7 +912,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -906,7 +921,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -915,7 +930,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -924,7 +939,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -933,7 +948,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -942,7 +957,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -951,7 +966,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -960,7 +975,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -969,7 +984,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -978,7 +993,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -987,7 +1002,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -996,7 +1011,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1005,7 +1020,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1014,7 +1029,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1023,7 +1038,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1032,7 +1047,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1041,7 +1056,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1050,7 +1065,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1059,7 +1074,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1068,7 +1083,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1077,7 +1092,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1086,7 +1101,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1095,7 +1110,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E94DA0-A74F-4589-8971-D9A44EBAEB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB544A89-DC96-4050-A710-EFB057DABD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -129,6 +128,32 @@
 - if &gt;=, push to stack
 - if &lt;, calaculate the area, assign the index to previous index
 - After all, we will calculate all stack to calculate area with index and height</t>
+  </si>
+  <si>
+    <t>42. Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>- Give an array of height representing an elevation map
+- Each bar width is 1
+- return the water can trap after rainning</t>
+  </si>
+  <si>
+    <t>- We must know at a point which wether this point can be a hole. Mean that this point lower than another ahead bar and an other behind bar
+- We can found the max and min until a point by use 2 array to store these information
+- then at the end, we can use the formular a point minus that min of(max value behind, max value ahead) then it will be the answer
+--&gt; O(n)
+- Because all we need is current index can be a hole or not
+- We can keep two pointer left and right.
+- Firstly, compare these two value
+- Then we can find max of that part, exp maxLeft or maxRight
+- Then just add to answer the amount of current value and max of part
+- Why this algorithms can be used?</t>
+  </si>
+  <si>
+    <t>- Keep practice,  because I'm kind of not good at algorimths :(</t>
   </si>
 </sst>
 </file>
@@ -585,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -636,90 +661,102 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
@@ -768,7 +805,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1119,8 +1156,17 @@
       <c r="F51" s="5"/>
       <c r="G51" s="1"/>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A5:G1048576">
+  <conditionalFormatting sqref="A1:G1 A6:G1048576">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B1="Hard"</formula>
     </cfRule>
@@ -1131,7 +1177,7 @@
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G4">
+  <conditionalFormatting sqref="A2:G5">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$B2="Hard"</formula>
     </cfRule>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB544A89-DC96-4050-A710-EFB057DABD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14F73A-EA08-4CFC-8654-ADC7EC312CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary search" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -155,12 +156,126 @@
   <si>
     <t>- Keep practice,  because I'm kind of not good at algorimths :(</t>
   </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>- Give a unique sorted in ascending array which is rotated between 1 to n times
+- Find the minimum of that array</t>
+  </si>
+  <si>
+    <t>- Need to know current mid is on rotated array or normal array
+- Key idea: if an value m &gt; right value ==&gt; min value only can in [m + 1; n - 1], conversely, the min value only can in [0, m]
+- m can be min value
+- Why don't we compare with left value?
+--&gt; Let see if an array didn't rotate, mid always &gt; left value so we use it to apply to this statement it not cover all case. The case mid compare with right value to determine if the array is rotated or not</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>- Give a unique sorted in ascending array which is rotated between 1 to n times
+- Find the target index of that array</t>
+  </si>
+  <si>
+    <t>- When we split the array with mid, the array can be splited to  part. [left; mid), [mid], (mid; right]
+- Case 1: arr[mid] == target, return
+If case 1 not happen, can think that arr[mid] != target
+- Case 2: arr[mid] &gt;= nums[l], it implies that the left array are sorted, so we use it to check first. If target &gt;= arr[left] &amp;&amp; target &lt; arr[mid] we can split the other part.
+- Case 3: arr[mid] &lt; nums[l], it implies that the right subarray is sorted, so we use it to check first. If target &lt;= arr[right] &amp;&amp; target &gt; arr[mid] we can split the other part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool P(int x) {
+    // Logic của hàm P ở đây
+    return true;  // thay giá trị này bằng giá trị đúng logic.
+}
+int binary_search(int lo, int hi) {
+    while (lo &lt; hi) {
+        int mid = lo + (hi-lo)/2;
+        if (P(mid) == true)
+            hi = mid;
+        else
+            lo = mid+1;
+    }
+    if (P(lo) == false)
+        return -1; // P(x) = false với mọi x thuộc S, bài toán vô nghiệm.
+   return lo; // lo là giá trị x nhỏ nhất mà P(x) = true
+}
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TH1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tìm x nhỏ nhất mà P(x)=true. Dưới đây là đoạn code mẫu viết bằng C++.</t>
+    </r>
+  </si>
+  <si>
+    <t>bool P(int x) {
+    // Logic của hàm P ở đây
+    return true;  // thay giá trị này bằng giá trị đúng logic.
+}
+int binary_search(int lo, int hi) {
+    while (lo &lt; hi) {
+        int mid = lo + (hi-lo+1)/2;
+        if (P(mid) == true)
+            hi = mid - 1;
+        else
+            lo = mid;
+    }
+    if (P(lo) == true)
+        return -1; // P(x) = true với mọi x thuộc S, bài toán vô nghiệm.
+   return lo; // lo là giá trị x lớn nhất mà P(x) = false
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TH2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tìm x lớn nhất mà P(x)=false, suy luận tương tự như trên, ta có đoạn code như sau:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +306,29 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +341,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -229,11 +377,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -253,11 +416,61 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -610,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -661,120 +874,140 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+    <row r="8" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    <row r="9" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
     </row>
@@ -814,7 +1047,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -823,7 +1056,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1165,30 +1398,119 @@
       <c r="F52" s="5"/>
       <c r="G52" s="1"/>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A6:G1048576">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A1:G1 A8:G1048576">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$B1="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$B1="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G5">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A4:G7">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$B4="Hard"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$B4="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$B4="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G2 A3:C3 E3:G3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B2="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B2="Medium"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$B2="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B3="Hard"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B3="Medium"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B2="Easy"</formula>
+      <formula>$B3="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F4A3BF-FFAB-4AE0-ABE5-234251332134}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14F73A-EA08-4CFC-8654-ADC7EC312CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C8ED73-2B12-49B6-A08B-F11997453FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -269,6 +269,28 @@
       </rPr>
       <t xml:space="preserve"> tìm x lớn nhất mà P(x)=false, suy luận tương tự như trên, ta có đoạn code như sau:</t>
     </r>
+  </si>
+  <si>
+    <t>240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>- Give a 2D sorted array
+- its rows and its columns are nondecreasing
+- Check weather a number appears in the array</t>
+  </si>
+  <si>
+    <t>- Can see that, the array is sorted its rows and its columns
+- Think to how can we use that property to reduce search space
+- Can observe that if we compare target with A[0][0] for example, target &gt; A[0][0] but we can't eliminate anything
+- If we compare A[0][n - 1] with target, we can see A[0][n - 1] &gt; target so we know that target can't appear in column n -1
+- Or if A[0][n - 1] &lt; target so we know that target can't appear in row 0
+- if A[0][n - 1] == target so we can return TRUE</t>
+  </si>
+  <si>
+    <t>215. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>- Given an integer array nums and an integer k, return the kth largest element in the array.</t>
   </si>
 </sst>
 </file>
@@ -823,9 +845,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -874,28 +896,26 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -904,128 +924,148 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="10" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+    <row r="11" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
@@ -1065,7 +1105,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1074,7 +1114,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1416,8 +1456,26 @@
       <c r="F54" s="5"/>
       <c r="G54" s="1"/>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A8:G1048576">
+  <conditionalFormatting sqref="A1:G1 A10:G1048576">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$B1="Hard"</formula>
     </cfRule>
@@ -1428,18 +1486,18 @@
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:G7">
+  <conditionalFormatting sqref="A6:G9">
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$B4="Hard"</formula>
+      <formula>$B6="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B4="Medium"</formula>
+      <formula>$B6="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$B4="Easy"</formula>
+      <formula>$B6="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G2 A3:C3 E3:G3">
+  <conditionalFormatting sqref="A2:G4 A5:C5 E5:G5">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B2="Hard"</formula>
     </cfRule>
@@ -1450,15 +1508,15 @@
       <formula>$B2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D5">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B3="Hard"</formula>
+      <formula>$B5="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B3="Medium"</formula>
+      <formula>$B5="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B3="Easy"</formula>
+      <formula>$B5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C8ED73-2B12-49B6-A08B-F11997453FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07FC3F-D9DD-49F9-A375-AEEEE9AFFD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -291,6 +291,17 @@
   </si>
   <si>
     <t>- Given an integer array nums and an integer k, return the kth largest element in the array.</t>
+  </si>
+  <si>
+    <t>- Quick select algorithm
+- choose a random pivot
+- Init three list, left, right and mid
+- if num &gt; pivot, add to left
+- if num &lt; pivot, add to right
+- otherwise add to mid
+- check if left.size() &gt;= k call recursive quickSelect(left, k)
+- check if left.size() + mid.size() &lt; k --&gt; call recursive quickSelect(right, k - left.size() - mid.size());
+- else return pivot</t>
   </si>
 </sst>
 </file>
@@ -847,9 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -896,7 +907,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -909,7 +920,9 @@
       <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07FC3F-D9DD-49F9-A375-AEEEE9AFFD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D59985C-29E7-47F7-8BA5-642E8C853BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -302,6 +302,45 @@
 - check if left.size() &gt;= k call recursive quickSelect(left, k)
 - check if left.size() + mid.size() &lt; k --&gt; call recursive quickSelect(right, k - left.size() - mid.size());
 - else return pivot</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>- Give an integer array to represent an large integer.
+- Write code to output the integer plus 1.
+Ex: [1, 2, 9] -&gt; [1, 3, 0]</t>
+  </si>
+  <si>
+    <t>Think more</t>
+  </si>
+  <si>
+    <t>881. Boats to Save People</t>
+  </si>
+  <si>
+    <t>- Give an array people, people[i] is weight of i-th person and an infinity number of boat
+- each boat can carry maximum weight of limit and at most two people
+- return the minimum number of boats to carry every given person</t>
+  </si>
+  <si>
+    <t>- Two pointer
+- Sort array
+- init l, r, boat
+- while l &lt;= r, if(people[l] + people[r] &lt;= limit l++
+- r--, boat++</t>
+  </si>
+  <si>
+    <t>- Mimic primary school how to plus number
+- plus last number to 1
+- iterate from last the array to index 1 to check if number == 10
+- if yes, set it to 0 and the ahead number plus 1
+- keep check
+- lastly check the index 0, if it == 10, create new array, set index 0 of new array == 1, set index 0 of old array to 0 then copy old array to to new array start at index 1
+- Move along the input array starting from the end
+- Set all the nines at the end of the array to zeros
+- if have the right most not nine, Increase this rightmost not-nine by 1
+- Job done
+-- if all digit are nine, extend array 1 more lenght and assign digit[0] = 1</t>
   </si>
 </sst>
 </file>
@@ -486,7 +525,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFB1E739"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,6 +589,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFB1E739"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF8181"/>
@@ -856,11 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -907,9 +947,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -918,55 +958,57 @@
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -975,128 +1017,148 @@
         <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+    <row r="13" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="1"/>
     </row>
@@ -1136,7 +1198,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1145,7 +1207,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1487,8 +1549,26 @@
       <c r="F56" s="5"/>
       <c r="G56" s="1"/>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A10:G1048576">
+  <conditionalFormatting sqref="A1:G1 A12:G1048576">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$B1="Hard"</formula>
     </cfRule>
@@ -1499,18 +1579,18 @@
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:G9">
+  <conditionalFormatting sqref="A8:G11">
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$B6="Hard"</formula>
+      <formula>$B8="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B6="Medium"</formula>
+      <formula>$B8="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$B6="Easy"</formula>
+      <formula>$B8="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G4 A5:C5 E5:G5">
+  <conditionalFormatting sqref="A2:G6 A7:C7 E7:G7">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B2="Hard"</formula>
     </cfRule>
@@ -1521,15 +1601,15 @@
       <formula>$B2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B5="Hard"</formula>
+      <formula>$B7="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B5="Medium"</formula>
+      <formula>$B7="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B5="Easy"</formula>
+      <formula>$B7="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D59985C-29E7-47F7-8BA5-642E8C853BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16E83D-7BE1-4FEA-B1F4-35FEF4F0A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -342,12 +342,43 @@
 - Job done
 -- if all digit are nine, extend array 1 more lenght and assign digit[0] = 1</t>
   </si>
+  <si>
+    <t>415. Add Strings</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>- Given two non-negative integers, num1 and num2 represented as string, return the sum of num1 and num2 as a string.</t>
+  </si>
+  <si>
+    <t>- Think about how to plus two number in primary school
+- take last number of each String
+- cal carry, cal value
+- append value to StringBuilder
+- reverse stringbuilder</t>
+  </si>
+  <si>
+    <t>989. Add to Array-Form of Integer</t>
+  </si>
+  <si>
+    <t>- Given an array num represent a number and an integer k
+- return array of num + k</t>
+  </si>
+  <si>
+    <t>- Can use add string algo
+- use the k like a carry
+- loop the num and add to number k, add k % 10 to ans
+- k = / 10 like carry
+- After out the loop, check if k &gt; 0, if yes, add k % 10 to list and k /= 10
+- can use LinkedList to lower add to List to O(1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +425,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -468,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -949,47 +991,47 @@
     </row>
     <row r="3" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -998,55 +1040,57 @@
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1055,128 +1099,148 @@
         <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
     </row>
@@ -1216,7 +1280,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1225,7 +1289,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1567,8 +1631,26 @@
       <c r="F58" s="5"/>
       <c r="G58" s="1"/>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A12:G1048576">
+  <conditionalFormatting sqref="A1:G1 A14:G1048576">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$B1="Hard"</formula>
     </cfRule>
@@ -1579,18 +1661,18 @@
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:G11">
+  <conditionalFormatting sqref="A10:G13">
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$B8="Hard"</formula>
+      <formula>$B10="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B8="Medium"</formula>
+      <formula>$B10="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$B8="Easy"</formula>
+      <formula>$B10="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G6 A7:C7 E7:G7">
+  <conditionalFormatting sqref="A2:G8 A9:C9 E9:G9">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B2="Hard"</formula>
     </cfRule>
@@ -1601,15 +1683,15 @@
       <formula>$B2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B7="Hard"</formula>
+      <formula>$B9="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B7="Medium"</formula>
+      <formula>$B9="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B7="Easy"</formula>
+      <formula>$B9="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16E83D-7BE1-4FEA-B1F4-35FEF4F0A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF989D-F54B-4FE3-8A3B-E2C4DCDB12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,14 +529,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,9 +692,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,9 +727,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,9 +779,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1039,7 @@
       <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
@@ -1716,26 +1750,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF989D-F54B-4FE3-8A3B-E2C4DCDB12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967276B-E65B-4C31-9981-AD82ABA01F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -372,6 +372,37 @@
 - k = / 10 like carry
 - After out the loop, check if k &gt; 0, if yes, add k % 10 to list and k /= 10
 - can use LinkedList to lower add to List to O(1)</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>- Give an integer n
+- return the number of prime numbers that are strictly less than n.
+- Not count 0 and 1 as primes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- create an boolean array
+- loop from 2 to n
+- if arr[n] == true, we will remove all k*n number, count++
+- return count </t>
+  </si>
+  <si>
+    <t>1920. Build Array from Permutation</t>
+  </si>
+  <si>
+    <t>- Given a zero-based permutation nums
+- Build an array ans of the same length where ans[i] = nums[nums[i]] for each 0 &lt;= i &lt; nums.length and return it.</t>
+  </si>
+  <si>
+    <t>Space O(1)
+- Use recursive to reduce the space complexity
+- We can see, the key here ans[i] = nums[nums[i]], so at each index, we will save the nums[nums[i]]
+- base case: index &gt;= n
+- assign arr[i] = nums[nums[i]]</t>
+  </si>
+  <si>
+    <t>Use recursive as a tool to decrease space complexity</t>
   </si>
 </sst>
 </file>
@@ -542,7 +573,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB1E739"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -972,11 +1024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="A3:E4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1077,7 @@
     </row>
     <row r="3" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1034,78 +1086,78 @@
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1114,55 +1166,57 @@
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1171,128 +1225,148 @@
         <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="16" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
     </row>
@@ -1332,7 +1406,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1341,7 +1415,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1683,49 +1757,78 @@
       <c r="F60" s="5"/>
       <c r="G60" s="1"/>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A14:G1048576">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="A1:G1 A16:G1048576">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$B1="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$B1="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$B1="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:G13">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$B10="Hard"</formula>
+  <conditionalFormatting sqref="A12:G15">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$B12="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B10="Medium"</formula>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$B12="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$B10="Easy"</formula>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$B12="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G8 A9:C9 E9:G9">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A2:G3 A11:C11 E11:G11 A5:G10">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$B2="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$B2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$B11="Hard"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B11="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>$B11="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:G4">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B9="Hard"</formula>
+      <formula>$B4="Hard"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B9="Medium"</formula>
+      <formula>$B4="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B9="Easy"</formula>
+      <formula>$B4="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
